--- a/biology/Botanique/Bafutia_tenuicaulis/Bafutia_tenuicaulis.xlsx
+++ b/biology/Botanique/Bafutia_tenuicaulis/Bafutia_tenuicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bafutia tenuicaulis C.D.Adams est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Bafutia, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bafutia tenuicaulis C.D.Adams est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Bafutia, présente en Afrique tropicale.
 Le nom est considéré comme une synonyme d’Emilia tenuicaulis (C.D.Adams) Mapaya &amp; Cron.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante aux fleurs rouges, qui pousse normalement sur un sol rocheux humide[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante aux fleurs rouges, qui pousse normalement sur un sol rocheux humide. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 août 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 août 2017) :
 variété Bafutia tenuicaulis var. zapfackiana</t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, elle est présente au Cameroun[5] dans les monts Bamboutos, sur les plateaux de Bamenda[6] et au Nigeria[6], entre 1 800 et 2 800 mètres d’altitude[6]
-Assez différente, la sous-espèce Bafutia tenuicaulis C.D.Adams var. zapfackiana Beeentje &amp; B.J.Pollard est endémique du Cameroun. On ne la trouve qu'au mont Oku et sur la crête d'Ijim, dans la Région du Nord-Ouest[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, elle est présente au Cameroun dans les monts Bamboutos, sur les plateaux de Bamenda et au Nigeria, entre 1 800 et 2 800 mètres d’altitude
+Assez différente, la sous-espèce Bafutia tenuicaulis C.D.Adams var. zapfackiana Beeentje &amp; B.J.Pollard est endémique du Cameroun. On ne la trouve qu'au mont Oku et sur la crête d'Ijim, dans la Région du Nord-Ouest.
 </t>
         </is>
       </c>
